--- a/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_man_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_man_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,40 +1204,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45392.83333333334</v>
+        <v>45392.6875</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1245,40 +1245,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45392.84027777778</v>
+        <v>45392.69444444445</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J20" t="n">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1286,10 +1286,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45392.84722222222</v>
+        <v>45392.70138888889</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1301,25 +1301,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1327,34 +1327,34 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45392.85416666666</v>
+        <v>45392.83333333334</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J22" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L22" s="3" t="n">
         <v>45392</v>
@@ -1368,13 +1368,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45392.86111111111</v>
+        <v>45392.84027777778</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1383,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>45392</v>
@@ -1409,13 +1409,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45392.86805555555</v>
+        <v>45392.84722222222</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1427,21 +1427,144 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J24" t="n">
         <v>81</v>
       </c>
       <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45392.85416666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>83</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45392.86111111111</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>3</v>
       </c>
-      <c r="L24" s="3" t="n">
-        <v>45392</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26</v>
+      </c>
+      <c r="J26" t="n">
+        <v>85</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45392.86805555555</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>81</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M27" t="n">
         <v>20</v>
       </c>
     </row>
